--- a/biology/Zoologie/Hypolaïs_ictérine/Hypolaïs_ictérine.xlsx
+++ b/biology/Zoologie/Hypolaïs_ictérine/Hypolaïs_ictérine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypola%C3%AFs_ict%C3%A9rine</t>
+          <t>Hypolaïs_ictérine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippolais icterina
 L'Hypolaïs ictérine (Hippolais icterina) est une espèce de passereaux de la famille des Acrocephalidae. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hypola%C3%AFs_ict%C3%A9rine</t>
+          <t>Hypolaïs_ictérine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Longueur : 13,5 cm
 Envergure : 20 - 24 cm
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hypola%C3%AFs_ict%C3%A9rine</t>
+          <t>Hypolaïs_ictérine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicheuse et migratrice rare, l'Hypolaïs Ictérine est localisée en France dans le nord et dans l'est (Alsace). Cet oiseau vit dans toute l'Europe continentale à l'exception du sud-ouest
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hypola%C3%AFs_ict%C3%A9rine</t>
+          <t>Hypolaïs_ictérine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce consomme des insectes prélevés dans le feuillage et des baies arrachées avec le bec.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hypola%C3%AFs_ict%C3%A9rine</t>
+          <t>Hypolaïs_ictérine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle habite les milieux dominés par les buissons, les campagnes arborées ainsi que les parcs (parfois les jardins) riches en haies et buissons.
 </t>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hypola%C3%AFs_ict%C3%A9rine</t>
+          <t>Hypolaïs_ictérine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Coupe profonde suspendue à une branche d'arbre fourchue. 4 à 5 œufs en une ponte de mai à août.
 </t>
@@ -650,7 +672,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hypola%C3%AFs_ict%C3%A9rine</t>
+          <t>Hypolaïs_ictérine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -668,18 +690,124 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>L'espèce Hippolais icterina a été décrite par l'ornithologue français Louis Jean Pierre Vieillot en 1817, sous le nom initial de Sylvia icterina [1]
-Synonymie
-Sylvia icterina Vieillot, 1817 Protonyme
-Nom vernaculaires
-Étymologie
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Hippolais icterina a été décrite par l'ornithologue français Louis Jean Pierre Vieillot en 1817, sous le nom initial de Sylvia icterina 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hypolaïs_ictérine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypola%C3%AFs_ict%C3%A9rine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sylvia icterina Vieillot, 1817 Protonyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hypolaïs_ictérine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypola%C3%AFs_ict%C3%A9rine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nom vernaculaires</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étymologie
 Son nom vient du grec ancien ikteros, c'est-à-dire jaune ou jaunisse (ictère) : Pline l'Ancien pensait que  voir cet oiseau guérissait de la jaunisse.
 Autres noms
 C'est un sylvidé, appelé aussi jadis  Sylvia ictérina, Salicaria, Motacilla, Curruca et Grand Contrefaisant, à tort par Buffon,  fauvette des roseaux, classé autrefois dans les Motacillacea. Appelé aussi de nos jours Babillard, Hypolais des jardins, Contrefaisant à ailes longues, Contrefaisant à longues ailes, Rossignol bâtard, Bec-fin à poitrine jaune, Moqueur.
-Taxinomie
-Liste des sous-espèces
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hypolaïs_ictérine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypola%C3%AFs_ict%C3%A9rine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
 Hippolais icterina alaris
 Hippolais icterina icterina
 Hippolais icterina magnioculi</t>
